--- a/unichrom plate map example.xlsx
+++ b/unichrom plate map example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13600" windowHeight="5030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13600" windowHeight="5030"/>
   </bookViews>
   <sheets>
     <sheet name="plate map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Experiment Title:</t>
   </si>
@@ -55,12 +55,6 @@
     <t>B3</t>
   </si>
   <si>
-    <t>CTB</t>
-  </si>
-  <si>
-    <t>17-05-21-CTB1</t>
-  </si>
-  <si>
     <t>17-05-21-Run1</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>GVYQSRL</t>
   </si>
   <si>
-    <t>HC7D</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>CTB-GV</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -113,6 +101,21 @@
   </si>
   <si>
     <t>Concentration</t>
+  </si>
+  <si>
+    <t>Species 1</t>
+  </si>
+  <si>
+    <t>Species 2</t>
+  </si>
+  <si>
+    <t>Species 3</t>
+  </si>
+  <si>
+    <t>Species 4</t>
+  </si>
+  <si>
+    <t>17-05-21-A</t>
   </si>
 </sst>
 </file>
@@ -904,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,16 +935,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,13 +955,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -972,13 +975,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -992,13 +995,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1043,105 +1046,105 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>13321</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>13184</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>13595</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>13627</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
